--- a/Final_data/Strumenti/Conf_matrix_dec_tree.xlsx
+++ b/Final_data/Strumenti/Conf_matrix_dec_tree.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Exoplanets_Supervised_Learning\Final_data\Strumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9373B3B-F9A8-4BE4-B533-9B20104C108B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FA534F-58DD-4631-8F0E-B89DC39DD154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1935" windowWidth="16320" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7815" yWindow="600" windowWidth="16350" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -348,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1502"/>
+  <dimension ref="A1:B1501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1430" workbookViewId="0">
+      <selection activeCell="B1501" sqref="B1328:B1501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10641,7 +10650,7 @@
         <v>0</v>
       </c>
       <c r="B1286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.25">
@@ -10649,7 +10658,7 @@
         <v>0</v>
       </c>
       <c r="B1287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.25">
@@ -10657,7 +10666,7 @@
         <v>0</v>
       </c>
       <c r="B1288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.25">
@@ -10665,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="B1289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
@@ -10673,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="B1290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.25">
@@ -10681,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="B1291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.25">
@@ -10689,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="B1292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.25">
@@ -10697,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="B1293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.25">
@@ -10705,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="B1294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
@@ -10713,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="B1295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.25">
@@ -10721,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="B1296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.25">
@@ -10729,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="B1297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.25">
@@ -10737,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="B1298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.25">
@@ -10745,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="B1299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.25">
@@ -10753,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="B1300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.25">
@@ -10761,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="B1301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.25">
@@ -10769,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="B1302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.25">
@@ -10777,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="B1303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.25">
@@ -10785,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="B1304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.25">
@@ -10793,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="B1305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.25">
@@ -10801,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="B1306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.25">
@@ -10809,7 +10818,7 @@
         <v>0</v>
       </c>
       <c r="B1307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.25">
@@ -10817,12 +10826,12 @@
         <v>0</v>
       </c>
       <c r="B1308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1309">
         <v>0</v>
@@ -10830,7 +10839,7 @@
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1310">
         <v>0</v>
@@ -10838,7 +10847,7 @@
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1311">
         <v>0</v>
@@ -10846,7 +10855,7 @@
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1312">
         <v>0</v>
@@ -10854,7 +10863,7 @@
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1313">
         <v>0</v>
@@ -10862,7 +10871,7 @@
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1314">
         <v>0</v>
@@ -10870,7 +10879,7 @@
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1315">
         <v>0</v>
@@ -10878,7 +10887,7 @@
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1316">
         <v>0</v>
@@ -10886,7 +10895,7 @@
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1317">
         <v>0</v>
@@ -10894,7 +10903,7 @@
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1318">
         <v>0</v>
@@ -10902,7 +10911,7 @@
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1319">
         <v>0</v>
@@ -10910,7 +10919,7 @@
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1320">
         <v>0</v>
@@ -10918,7 +10927,7 @@
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1321">
         <v>0</v>
@@ -10926,7 +10935,7 @@
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1322">
         <v>0</v>
@@ -10934,7 +10943,7 @@
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1323">
         <v>0</v>
@@ -10942,7 +10951,7 @@
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1324">
         <v>0</v>
@@ -10950,7 +10959,7 @@
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1325">
         <v>0</v>
@@ -10958,7 +10967,7 @@
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1326">
         <v>0</v>
@@ -10966,7 +10975,7 @@
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1327">
         <v>0</v>
@@ -10974,119 +10983,119 @@
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1342">
         <v>1</v>
@@ -11094,7 +11103,7 @@
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1343">
         <v>1</v>
@@ -11102,7 +11111,7 @@
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1344">
         <v>1</v>
@@ -11110,7 +11119,7 @@
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1345">
         <v>1</v>
@@ -11118,7 +11127,7 @@
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1346">
         <v>1</v>
@@ -11126,7 +11135,7 @@
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1347">
         <v>1</v>
@@ -11134,7 +11143,7 @@
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1348">
         <v>1</v>
@@ -11142,7 +11151,7 @@
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1349">
         <v>1</v>
@@ -11150,7 +11159,7 @@
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1350">
         <v>1</v>
@@ -11158,7 +11167,7 @@
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1351">
         <v>1</v>
@@ -11166,7 +11175,7 @@
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1352">
         <v>1</v>
@@ -11174,7 +11183,7 @@
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1353">
         <v>1</v>
@@ -11182,7 +11191,7 @@
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1354">
         <v>1</v>
@@ -11190,7 +11199,7 @@
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1355">
         <v>1</v>
@@ -11198,7 +11207,7 @@
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1356">
         <v>1</v>
@@ -11206,7 +11215,7 @@
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1357">
         <v>1</v>
@@ -11214,7 +11223,7 @@
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1358">
         <v>1</v>
@@ -11222,7 +11231,7 @@
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1359">
         <v>1</v>
@@ -11230,7 +11239,7 @@
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1360">
         <v>1</v>
@@ -11238,7 +11247,7 @@
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1361">
         <v>1</v>
@@ -11246,7 +11255,7 @@
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1362">
         <v>1</v>
@@ -11257,7 +11266,7 @@
         <v>1</v>
       </c>
       <c r="B1363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.25">
@@ -11265,7 +11274,7 @@
         <v>1</v>
       </c>
       <c r="B1364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.25">
@@ -11273,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="B1365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.25">
@@ -11281,7 +11290,7 @@
         <v>1</v>
       </c>
       <c r="B1366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.25">
@@ -11289,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="B1367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.25">
@@ -11297,7 +11306,7 @@
         <v>1</v>
       </c>
       <c r="B1368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.25">
@@ -11305,7 +11314,7 @@
         <v>1</v>
       </c>
       <c r="B1369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.25">
@@ -11313,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="B1370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.25">
@@ -11321,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="B1371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.25">
@@ -11329,7 +11338,7 @@
         <v>1</v>
       </c>
       <c r="B1372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.25">
@@ -11337,7 +11346,7 @@
         <v>1</v>
       </c>
       <c r="B1373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.25">
@@ -11345,7 +11354,7 @@
         <v>1</v>
       </c>
       <c r="B1374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.25">
@@ -12361,14 +12370,6 @@
         <v>1</v>
       </c>
       <c r="B1501">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1502">
-        <v>1</v>
-      </c>
-      <c r="B1502">
         <v>1</v>
       </c>
     </row>
